--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 46463-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 46463-2019.xlsx", "A 46463-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 46463-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 46463-2019.png", "A 46463-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 46463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 46463-2019.docx", "A 46463-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 46463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 46463-2019.docx", "A 46463-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 46463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 46463-2019.docx", "A 46463-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 46463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 46463-2019.docx", "A 46463-2019")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,27 +720,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 21759-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 21759-2021.xlsx", "A 21759-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 21759-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 21759-2021.png", "A 21759-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 21759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 21759-2021.docx", "A 21759-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 21759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 21759-2021.docx", "A 21759-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 21759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 21759-2021.docx", "A 21759-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 21759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 21759-2021.docx", "A 21759-2021")</f>
         <v/>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 22966-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 22966-2020.xlsx", "A 22966-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 22966-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 22966-2020.png", "A 22966-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 22966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 22966-2020.docx", "A 22966-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 22966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 22966-2020.docx", "A 22966-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 22966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 22966-2020.docx", "A 22966-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 22966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 22966-2020.docx", "A 22966-2020")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,27 +895,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 73714-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/artfynd/A 73714-2021.xlsx", "A 73714-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 73714-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/kartor/A 73714-2021.png", "A 73714-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 73714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomål/A 73714-2021.docx", "A 73714-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 73714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/klagomålsmail/A 73714-2021.docx", "A 73714-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 73714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsyn/A 73714-2021.docx", "A 73714-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 73714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MOLNDAL/tillsynsmail/A 73714-2021.docx", "A 73714-2021")</f>
         <v/>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -572,7 +572,7 @@
         <v>43719</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>43965</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44551</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>43411</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>43455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>43621</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>43718</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>43738</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>43770</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>43771</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>43781</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>43788</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>43850</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>43854</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>43916</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43936</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44005</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44036</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44061</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>44166</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44223</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>44322</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44516</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>44831</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45071</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45072</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
